--- a/ACM算法清查表.xlsx
+++ b/ACM算法清查表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\unfinish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2589C84C-3F9A-420D-A9D1-27636BEF4026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0329F5-7E4E-4DA9-8E6F-8C86B0CFDDA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1159,7 +1159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,15 +1177,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1512,104 +1503,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
@@ -1618,10 +1540,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1906,1474 +1882,1475 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="9" t="s">
+    <row r="14" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="9" t="s">
+    <row r="15" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="9" t="s">
+    <row r="16" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="9" t="s">
+    <row r="17" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26" t="s">
+    <row r="18" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="9" t="s">
+    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+    <row r="26" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="9" t="s">
+    <row r="27" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26" t="s">
+    <row r="28" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="32" t="s">
+    <row r="29" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="10" t="s">
+    <row r="31" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="9" t="s">
+    <row r="33" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26" t="s">
+    <row r="34" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="9" t="s">
+    <row r="35" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="9" t="s">
+    <row r="36" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26" t="s">
+    <row r="37" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="9" t="s">
+    <row r="38" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="9" t="s">
+    <row r="39" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26" t="s">
+    <row r="40" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="9" t="s">
+    <row r="41" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="7" t="s">
+    <row r="42" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" t="s">
+      <c r="C42" s="17"/>
+      <c r="D42" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+    <row r="43" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="9" t="s">
+    <row r="44" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26" t="s">
+    <row r="45" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="9" t="s">
+    <row r="46" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="9" t="s">
+    <row r="47" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="9" t="s">
+    <row r="48" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="9" t="s">
+    <row r="49" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="9" t="s">
+    <row r="50" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26" t="s">
+    <row r="51" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="9" t="s">
+    <row r="52" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="9" t="s">
+    <row r="53" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26" t="s">
+    <row r="54" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="B54" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="9" t="s">
+    <row r="55" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="9" t="s">
+    <row r="56" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="9" t="s">
+    <row r="57" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26" t="s">
+    <row r="58" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+      <c r="B58" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="9" t="s">
+    <row r="59" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="9" t="s">
+    <row r="60" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="10" t="s">
+    <row r="61" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
+    <row r="62" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="33" t="s">
+    <row r="63" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="34" t="s">
+    <row r="64" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" t="s">
+      <c r="C64" s="12"/>
+      <c r="D64" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26" t="s">
+    <row r="65" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+      <c r="B65" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="9" t="s">
+    <row r="66" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="9" t="s">
+    <row r="67" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26" t="s">
+    <row r="68" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="9" t="s">
+    <row r="69" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="9" t="s">
+    <row r="70" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="9" t="s">
+    <row r="71" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="35" t="s">
+    <row r="72" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" t="s">
+      <c r="C72" s="18"/>
+      <c r="D72" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
+    <row r="73" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="9" t="s">
+    <row r="74" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="9" t="s">
+    <row r="75" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="12" t="s">
+    <row r="76" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="6" t="s">
+    <row r="77" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="11"/>
-      <c r="D77" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="6" t="s">
+    <row r="78" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" t="s">
+      <c r="C78" s="12"/>
+      <c r="D78" s="8" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="25"/>
-      <c r="B79" s="7" t="s">
+    <row r="79" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" t="s">
+      <c r="C79" s="17"/>
+      <c r="D79" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="25" t="s">
+    <row r="80" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="25"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="9" t="s">
+    <row r="81" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="25"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="9" t="s">
+    <row r="82" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="25" t="s">
+    <row r="83" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="25"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="9" t="s">
+    <row r="84" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="25"/>
-      <c r="B85" s="26" t="s">
+    <row r="85" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="9" t="s">
+    <row r="86" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="9" t="s">
+    <row r="87" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="25"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="9" t="s">
+    <row r="88" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="25"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="9" t="s">
+    <row r="89" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="25"/>
-      <c r="B90" s="26" t="s">
+    <row r="90" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="25"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="9" t="s">
+    <row r="91" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="25"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="9" t="s">
+    <row r="92" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="25"/>
-      <c r="B93" s="6" t="s">
+    <row r="93" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="D93" t="s">
+      <c r="C93" s="12"/>
+      <c r="D93" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="25"/>
-      <c r="B94" s="7" t="s">
+    <row r="94" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+      <c r="B94" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" t="s">
+      <c r="C94" s="17"/>
+      <c r="D94" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" t="s">
+      <c r="C95" s="22"/>
+      <c r="D95" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="20"/>
-      <c r="B96" s="7" t="s">
+    <row r="96" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="23"/>
+      <c r="B96" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" t="s">
+      <c r="C96" s="18"/>
+      <c r="D96" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
-      <c r="B97" s="22" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="23"/>
+      <c r="B97" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="9" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="23"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="9" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="23"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="18" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="23"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="18" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="23"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="18" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="23"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="21"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="10" t="s">
+    <row r="103" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="27"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="25" t="s">
+    <row r="104" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="25"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="9" t="s">
+    <row r="105" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="8" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="25"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="9" t="s">
+    <row r="106" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="25"/>
-      <c r="B107" s="26" t="s">
+    <row r="107" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5"/>
+      <c r="B107" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C107" s="32" t="s">
+      <c r="C107" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="25"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="33" t="s">
+    <row r="108" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="8" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="25"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="9" t="s">
+    <row r="109" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="8" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="25"/>
-      <c r="B110" s="26" t="s">
+    <row r="110" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5"/>
+      <c r="B110" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="25"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="33" t="s">
+    <row r="111" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="25"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="9" t="s">
+    <row r="112" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="25"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="33" t="s">
+    <row r="113" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="25"/>
-      <c r="B114" s="26" t="s">
+    <row r="114" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5"/>
+      <c r="B114" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="25"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="9" t="s">
+    <row r="115" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="25"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="9" t="s">
+    <row r="116" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="25"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="9" t="s">
+    <row r="117" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="25"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="9" t="s">
+    <row r="118" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="25"/>
-      <c r="B119" s="6" t="s">
+    <row r="119" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5"/>
+      <c r="B119" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C119" s="11"/>
-      <c r="D119" t="s">
+      <c r="C119" s="12"/>
+      <c r="D119" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="25"/>
-      <c r="B120" s="6" t="s">
+    <row r="120" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="5"/>
+      <c r="B120" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C120" s="11"/>
-      <c r="D120" t="s">
+      <c r="C120" s="12"/>
+      <c r="D120" s="8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="25"/>
-      <c r="B121" s="6" t="s">
+    <row r="121" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="5"/>
+      <c r="B121" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="11"/>
-      <c r="D121" t="s">
+      <c r="C121" s="12"/>
+      <c r="D121" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="25"/>
-      <c r="B122" s="7" t="s">
+    <row r="122" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="5"/>
+      <c r="B122" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C122" s="13"/>
-      <c r="D122" t="s">
+      <c r="C122" s="18"/>
+      <c r="D122" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="25" t="s">
+    <row r="123" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B123" s="28" t="s">
+      <c r="B123" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C123" s="31" t="s">
+      <c r="C123" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="8" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="25"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="9" t="s">
+    <row r="124" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="5"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="25"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="9" t="s">
+    <row r="125" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="5"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="25"/>
-      <c r="B126" s="6" t="s">
+    <row r="126" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="B126" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="25"/>
-      <c r="B127" s="6" t="s">
+    <row r="127" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5"/>
+      <c r="B127" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C127" s="11"/>
-      <c r="D127" t="s">
+      <c r="C127" s="12"/>
+      <c r="D127" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="25"/>
-      <c r="B128" s="26" t="s">
+    <row r="128" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5"/>
+      <c r="B128" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C128" s="33" t="s">
+      <c r="C128" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="25"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="36" t="s">
+    <row r="129" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="25" t="s">
+    <row r="130" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B130" s="28" t="s">
+      <c r="B130" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="8" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="25"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="9" t="s">
+    <row r="131" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="25"/>
-      <c r="B132" s="6" t="s">
+    <row r="132" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5"/>
+      <c r="B132" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C132" s="11"/>
-      <c r="D132" t="s">
+      <c r="C132" s="12"/>
+      <c r="D132" s="8" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="25"/>
-      <c r="B133" s="26" t="s">
+    <row r="133" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5"/>
+      <c r="B133" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="8" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="27"/>
+    <row r="134" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="29"/>
       <c r="B134" s="30"/>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="8" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="A95:A103"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="A8:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="A43:A61"/>
+    <mergeCell ref="A62:A72"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
     <mergeCell ref="A123:A129"/>
     <mergeCell ref="A130:A134"/>
     <mergeCell ref="B2:B3"/>
@@ -3390,22 +3367,21 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A95:A103"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="A8:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="A43:A61"/>
-    <mergeCell ref="A62:A72"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B123:B125"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
